--- a/Files/24电科1班新生名单.xlsx
+++ b/Files/24电科1班新生名单.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\24EST1\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC84992-6CB7-4E64-8A63-0820A6658702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78B35F6-44C9-4191-A49D-31EF54DDE1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8436" yWindow="1044" windowWidth="13788" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24电科1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
   <si>
     <t>序号</t>
   </si>
@@ -71,340 +71,122 @@
     <t>李博文</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电科</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>2411151101</t>
-  </si>
-  <si>
     <t>罗荣坤</t>
   </si>
   <si>
-    <t>15997865906</t>
-  </si>
-  <si>
-    <t>2411151102</t>
-  </si>
-  <si>
     <t>陶雯丽</t>
   </si>
   <si>
-    <t>15347070319</t>
-  </si>
-  <si>
-    <t>2411151103</t>
-  </si>
-  <si>
     <t>黄文栋</t>
   </si>
   <si>
     <t>壮族</t>
   </si>
   <si>
-    <t>18676347369</t>
-  </si>
-  <si>
-    <t>2411151104</t>
-  </si>
-  <si>
     <t>王诗梦</t>
   </si>
   <si>
-    <t>13972320344</t>
-  </si>
-  <si>
-    <t>2411151105</t>
-  </si>
-  <si>
     <t>陈媛媛</t>
   </si>
   <si>
-    <t>18688691747</t>
-  </si>
-  <si>
-    <t>2411151106</t>
-  </si>
-  <si>
     <t>何志强</t>
   </si>
   <si>
-    <t>18872091162</t>
-  </si>
-  <si>
-    <t>2411151107</t>
-  </si>
-  <si>
     <t>潘涵文</t>
   </si>
   <si>
-    <t>15927758973</t>
-  </si>
-  <si>
-    <t>2411151108</t>
-  </si>
-  <si>
     <t>段振</t>
   </si>
   <si>
-    <t>13636050499</t>
-  </si>
-  <si>
-    <t>2411151109</t>
-  </si>
-  <si>
     <t>胡可</t>
   </si>
   <si>
-    <t>15171286913</t>
-  </si>
-  <si>
-    <t>2411151110</t>
-  </si>
-  <si>
     <t>王羽欣</t>
   </si>
   <si>
-    <t>13545082307</t>
-  </si>
-  <si>
-    <t>2411151111</t>
-  </si>
-  <si>
     <t>王康</t>
   </si>
   <si>
-    <t>19171094576</t>
-  </si>
-  <si>
-    <t>2411151112</t>
-  </si>
-  <si>
     <t>王以琳</t>
   </si>
   <si>
-    <t>18872675701</t>
-  </si>
-  <si>
-    <t>2411151113</t>
-  </si>
-  <si>
     <t>程诺</t>
   </si>
   <si>
-    <t>15727281486</t>
-  </si>
-  <si>
-    <t>2411151114</t>
-  </si>
-  <si>
     <t>赵浩然</t>
   </si>
   <si>
-    <t>2411151115</t>
-  </si>
-  <si>
     <t>杜雨默</t>
   </si>
   <si>
-    <t>2411151116</t>
-  </si>
-  <si>
     <t>秦洁冰</t>
   </si>
   <si>
-    <t>2411151117</t>
-  </si>
-  <si>
     <t>李海洋</t>
   </si>
   <si>
-    <t>18627950630</t>
-  </si>
-  <si>
-    <t>2411151118</t>
-  </si>
-  <si>
     <t>甘戈戢</t>
   </si>
   <si>
-    <t>18062338109</t>
-  </si>
-  <si>
-    <t>2411151119</t>
-  </si>
-  <si>
     <t>耿建福</t>
   </si>
   <si>
-    <t>2411151120</t>
-  </si>
-  <si>
     <t>李思睿</t>
   </si>
   <si>
-    <t>2411151121</t>
-  </si>
-  <si>
     <t>刘清阳</t>
   </si>
   <si>
-    <t>17762954201</t>
-  </si>
-  <si>
-    <t>2411151122</t>
-  </si>
-  <si>
     <t>陈靖涵</t>
   </si>
   <si>
-    <t>18008638380</t>
-  </si>
-  <si>
-    <t>2411151123</t>
-  </si>
-  <si>
     <t>魏博</t>
   </si>
   <si>
-    <t>15872854642</t>
-  </si>
-  <si>
-    <t>2411151124</t>
-  </si>
-  <si>
     <t>付敬淳</t>
   </si>
   <si>
-    <t>15271010581</t>
-  </si>
-  <si>
-    <t>2411151125</t>
-  </si>
-  <si>
-    <t>18371032887</t>
-  </si>
-  <si>
-    <t>2411151126</t>
-  </si>
-  <si>
     <t>田承栩</t>
   </si>
   <si>
-    <t>15327863574</t>
-  </si>
-  <si>
-    <t>2411151127</t>
-  </si>
-  <si>
     <t>王滨</t>
   </si>
   <si>
-    <t>15347170399</t>
-  </si>
-  <si>
-    <t>2411151128</t>
-  </si>
-  <si>
     <t>吴庭禹</t>
   </si>
   <si>
     <t>侗族</t>
   </si>
   <si>
-    <t>13886263283</t>
-  </si>
-  <si>
-    <t>2411151129</t>
-  </si>
-  <si>
     <t>张希霖</t>
   </si>
   <si>
-    <t>15307264110</t>
-  </si>
-  <si>
-    <t>2411151130</t>
-  </si>
-  <si>
     <t>胡钰阳</t>
   </si>
   <si>
-    <t>18908602919</t>
-  </si>
-  <si>
-    <t>2411151131</t>
-  </si>
-  <si>
     <t>李圆健</t>
   </si>
   <si>
-    <t>19151074953</t>
-  </si>
-  <si>
-    <t>2411151132</t>
-  </si>
-  <si>
     <t>王浩翔</t>
   </si>
   <si>
-    <t>18986811836</t>
-  </si>
-  <si>
-    <t>2411151133</t>
-  </si>
-  <si>
     <t>李伟翔</t>
   </si>
   <si>
-    <t>15342915861</t>
-  </si>
-  <si>
-    <t>2411151134</t>
-  </si>
-  <si>
     <t>周冠洁</t>
   </si>
   <si>
-    <t>15572573931</t>
-  </si>
-  <si>
-    <t>2411151135</t>
-  </si>
-  <si>
     <t>林家宇</t>
   </si>
   <si>
-    <t>15171619992</t>
+    <t>24电科1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,15 +206,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
     </font>
     <font>
       <sz val="9"/>
@@ -478,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,6 +260,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,10 +354,10 @@
   <a:themeElements>
     <a:clrScheme name="WPS">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="464646"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FCFCFC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -825,16 +601,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="15.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="21.44140625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,41 +639,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2411151101</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <v>15997865906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2411151102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -902,45 +681,45 @@
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>15347070319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2411151103</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>18676347369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2411151104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -948,22 +727,22 @@
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>13972320344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2411151105</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -971,22 +750,22 @@
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>18688691747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2411151106</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -994,22 +773,22 @@
       <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>18872091162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2411151107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -1017,22 +796,22 @@
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>15927758973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2411151108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -1040,22 +819,22 @@
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G9" s="2">
+        <v>13636050499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2411151109</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
@@ -1063,22 +842,22 @@
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G10" s="2">
+        <v>15171286913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2411151110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
@@ -1086,22 +865,22 @@
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <v>13545082307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2411151111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -1109,22 +888,22 @@
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>19171094576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2411151112</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
@@ -1132,22 +911,22 @@
       <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>18872675701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2411151113</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -1155,22 +934,22 @@
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>15727281486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2411151114</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
@@ -1178,20 +957,22 @@
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>15076536619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2411151115</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
@@ -1199,20 +980,22 @@
       <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G16" s="2">
+        <v>13313027680</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2411151116</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
@@ -1220,20 +1003,22 @@
       <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G17" s="2">
+        <v>15632931308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2411151117</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
@@ -1241,22 +1026,22 @@
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G18" s="2">
+        <v>18674108965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2411151118</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
@@ -1264,22 +1049,22 @@
       <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G19" s="2">
+        <v>18062338109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2411151119</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -1287,20 +1072,22 @@
       <c r="F20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <v>19103106895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2411151120</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
@@ -1308,20 +1095,22 @@
       <c r="F21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G21" s="2">
+        <v>15614865169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2411151121</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
@@ -1329,22 +1118,22 @@
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G22" s="2">
+        <v>17762954201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2411151122</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
@@ -1352,22 +1141,22 @@
       <c r="F23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G23" s="2">
+        <v>18008638380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2411151123</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
@@ -1375,22 +1164,22 @@
       <c r="F24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G24" s="2">
+        <v>15872854642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>78</v>
+        <v>48</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2411151124</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
@@ -1398,19 +1187,19 @@
       <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G25" s="2">
+        <v>15271010581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>48</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2411151125</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
@@ -1421,22 +1210,22 @@
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G26" s="2">
+        <v>13871784047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>48</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2411151126</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
@@ -1444,22 +1233,22 @@
       <c r="F27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G27" s="2">
+        <v>15327463343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2411151127</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
@@ -1467,45 +1256,45 @@
       <c r="F28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G28" s="2">
+        <v>15347170399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>48</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2411151128</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G29" s="2">
+        <v>13886263283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2411151129</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
@@ -1513,22 +1302,22 @@
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G30" s="2">
+        <v>15307264110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2411151130</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
@@ -1536,22 +1325,22 @@
       <c r="F31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G31" s="2">
+        <v>13972545015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2411151131</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
@@ -1559,22 +1348,22 @@
       <c r="F32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G32" s="2">
+        <v>19151074953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2411151132</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
@@ -1582,22 +1371,22 @@
       <c r="F33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G33" s="2">
+        <v>18986811836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2411151133</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
@@ -1605,22 +1394,22 @@
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G34" s="2">
+        <v>15342915861</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>108</v>
+        <v>48</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2411151134</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -1628,22 +1417,22 @@
       <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="G35" s="2">
+        <v>15572573931</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>111</v>
+        <v>48</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2411151135</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
@@ -1651,12 +1440,12 @@
       <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>113</v>
+      <c r="G36" s="2">
+        <v>13487067210</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Files/24电科1班新生名单.xlsx
+++ b/Files/24电科1班新生名单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\24EST1\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78B35F6-44C9-4191-A49D-31EF54DDE1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F470BEEB-FA55-4149-86A7-E3D6A7744ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8436" yWindow="1044" windowWidth="13788" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24电科1" sheetId="1" r:id="rId1"/>
@@ -270,74 +270,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -354,10 +286,10 @@
   <a:themeElements>
     <a:clrScheme name="WPS">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="464646"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FCFCFC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -601,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -751,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="2">
-        <v>18688691747</v>
+        <v>19237231883</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">

--- a/Files/24电科1班新生名单.xlsx
+++ b/Files/24电科1班新生名单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\24EST1\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F470BEEB-FA55-4149-86A7-E3D6A7744ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6640C1-8C98-47F5-9179-DC1EB78C172B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24电科1" sheetId="1" r:id="rId1"/>
@@ -270,6 +270,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -286,10 +354,10 @@
   <a:themeElements>
     <a:clrScheme name="WPS">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="464646"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FCFCFC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -534,7 +602,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="G33" s="2">
-        <v>18986811836</v>
+        <v>18986839536</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">

--- a/Files/24电科1班新生名单.xlsx
+++ b/Files/24电科1班新生名单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\24EST1\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\24EST1\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6640C1-8C98-47F5-9179-DC1EB78C172B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4259315D-78D0-42CB-BCC4-C6E31D23E8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="2">
-        <v>18674108965</v>
+        <v>13035100835</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
